--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/99511865/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/99511865/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9808371663093567</v>
+        <v>0.9562531113624573</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9806700944900513</v>
+        <v>0.9559363126754761</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9795694947242737</v>
+        <v>0.9538996815681458</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7644178867340088</v>
+        <v>0.6459600329399109</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9818313717842102</v>
+        <v>0.9581092000007629</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9825473427772522</v>
+        <v>0.9594701528549194</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9824452996253967</v>
+        <v>0.9592573642730713</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9820359349250793</v>
+        <v>0.9584612250328064</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9824452996253967</v>
+        <v>0.9592573642730713</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6630128026008606</v>
+        <v>0.5384619832038879</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.983838677406311</v>
+        <v>0.9619233012199402</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9287919402122498</v>
+        <v>0.8847172260284424</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9816009998321533</v>
+        <v>0.9576705694198608</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9816375374794006</v>
+        <v>0.9577434062957764</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9818533062934875</v>
+        <v>0.958171010017395</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9818904399871826</v>
+        <v>0.9582390785217285</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3074592351913452</v>
+        <v>0.2908510267734528</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9829574227333069</v>
+        <v>0.9602492451667786</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9832422733306885</v>
+        <v>0.9608234167098999</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9798032641410828</v>
+        <v>0.9543256163597107</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9816821217536926</v>
+        <v>0.9578325152397156</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9829642176628113</v>
+        <v>0.9602494835853577</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9833457469940186</v>
+        <v>0.9610084295272827</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7619065642356873</v>
+        <v>0.6439717411994934</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3002158403396606</v>
+        <v>0.2828307449817657</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9808654189109802</v>
+        <v>0.9563222527503967</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9806700944900513</v>
+        <v>0.9559363126754761</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9798977971076965</v>
+        <v>0.9545087814331055</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9818459153175354</v>
+        <v>0.9581495523452759</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9807071685791016</v>
+        <v>0.9560089707374573</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9826338887214661</v>
+        <v>0.9596616625785828</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8351275324821472</v>
+        <v>0.8272492289543152</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9292107224464417</v>
+        <v>0.8850981593132019</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9247655868530273</v>
+        <v>0.8786967992782593</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9825878739356995</v>
+        <v>0.9595547318458557</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9261799454689026</v>
+        <v>0.8806474208831787</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9835904240608215</v>
+        <v>0.9614669680595398</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9258604049682617</v>
+        <v>0.8811799287796021</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8347696661949158</v>
+        <v>0.827925980091095</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9836161732673645</v>
+        <v>0.9615048766136169</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8960718512535095</v>
+        <v>0.8464429974555969</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8396126627922058</v>
+        <v>0.8328801393508911</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9269150495529175</v>
+        <v>0.8817541599273682</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8421642780303955</v>
+        <v>0.8363493084907532</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8342753648757935</v>
+        <v>0.8259661197662354</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7516278624534607</v>
+        <v>0.6309003829956055</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8315668106079102</v>
+        <v>0.8232288360595703</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9834182858467102</v>
+        <v>0.961073637008667</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8365462422370911</v>
+        <v>0.8290533423423767</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8326890468597412</v>
+        <v>0.8226742148399353</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9805476665496826</v>
+        <v>0.9557181596755981</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8365462422370911</v>
+        <v>0.8290533423423767</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8367546796798706</v>
+        <v>0.829484224319458</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.98250812292099</v>
+        <v>0.959388256072998</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9827662706375122</v>
+        <v>0.9598740339279175</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9837945103645325</v>
+        <v>0.9618410468101501</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.924770712852478</v>
+        <v>0.878667414188385</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9835477471351624</v>
+        <v>0.9613248109817505</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9821510314941406</v>
+        <v>0.9586901664733887</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.98267662525177</v>
+        <v>0.959649384021759</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9834538102149963</v>
+        <v>0.9611836075782776</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.92705237865448</v>
+        <v>0.8820130228996277</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5227130055427551</v>
+        <v>0.4978302419185638</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9248049855232239</v>
+        <v>0.8787515759468079</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9248049855232239</v>
+        <v>0.8787515759468079</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9270628690719604</v>
+        <v>0.8820056319236755</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9248049855232239</v>
+        <v>0.8787515759468079</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7875847816467285</v>
+        <v>0.4909408390522003</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9825326204299927</v>
+        <v>0.9594511389732361</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9265956878662109</v>
+        <v>0.8814802169799805</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9784849286079407</v>
+        <v>0.9518908858299255</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9261341094970703</v>
+        <v>0.880634605884552</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9816941618919373</v>
+        <v>0.9578593969345093</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9818397164344788</v>
+        <v>0.9581294059753418</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9261341094970703</v>
+        <v>0.880634605884552</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9807142615318298</v>
+        <v>0.9560307860374451</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9261341094970703</v>
+        <v>0.880634605884552</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9829596281051636</v>
+        <v>0.9602513313293457</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9262163639068604</v>
+        <v>0.8807139992713928</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9807147979736328</v>
+        <v>0.9560378789901733</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9262163639068604</v>
+        <v>0.8807139992713928</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9754858613014221</v>
+        <v>0.9465182423591614</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9754858613014221</v>
+        <v>0.9465182423591614</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9837977290153503</v>
+        <v>0.9618348479270935</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9269484281539917</v>
+        <v>0.8819293975830078</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9829340577125549</v>
+        <v>0.9601583480834961</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9261837005615234</v>
+        <v>0.8806883096694946</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9806963801383972</v>
+        <v>0.9559932947158813</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9816620945930481</v>
+        <v>0.9578022360801697</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9816577434539795</v>
+        <v>0.9577971696853638</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9816737174987793</v>
+        <v>0.9578248262405396</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9816547632217407</v>
+        <v>0.9577893018722534</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9816524386405945</v>
+        <v>0.9577822089195251</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9816691279411316</v>
+        <v>0.9578181505203247</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.983875036239624</v>
+        <v>0.9619977474212646</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3158165812492371</v>
+        <v>0.1996187269687653</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9833289384841919</v>
+        <v>0.9609459042549133</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9807944297790527</v>
+        <v>0.9562028646469116</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9798629879951477</v>
+        <v>0.9544347524642944</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9830188155174255</v>
+        <v>0.9603840708732605</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7620788812637329</v>
+        <v>0.6419191956520081</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8397781848907471</v>
+        <v>0.8282299637794495</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9818342328071594</v>
+        <v>0.9581173658370972</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7977144718170166</v>
+        <v>0.5001277327537537</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9798832535743713</v>
+        <v>0.9544785022735596</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8404442667961121</v>
+        <v>0.8339248895645142</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.745769202709198</v>
+        <v>0.6229241490364075</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.980887770652771</v>
+        <v>0.9563385844230652</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9806700944900513</v>
+        <v>0.9559363126754761</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8352115750312805</v>
+        <v>0.8272955417633057</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8396495580673218</v>
+        <v>0.8328915238380432</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9279207587242126</v>
+        <v>0.8832935690879822</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9834679365158081</v>
+        <v>0.9612125754356384</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9279767274856567</v>
+        <v>0.8833833932876587</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9754433631896973</v>
+        <v>0.9463463425636292</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.978199303150177</v>
+        <v>0.9513810276985168</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7509816288948059</v>
+        <v>0.4619872868061066</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9824177622795105</v>
+        <v>0.9592070579528809</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9806700944900513</v>
+        <v>0.9559363126754761</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7876697778701782</v>
+        <v>0.4919404685497284</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9834221005439758</v>
+        <v>0.9610970616340637</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7876697778701782</v>
+        <v>0.4919404685497284</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9834221005439758</v>
+        <v>0.9610970616340637</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7876697778701782</v>
+        <v>0.4919404685497284</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9832137823104858</v>
+        <v>0.9607087373733521</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9808717966079712</v>
+        <v>0.9565362930297852</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9806700944900513</v>
+        <v>0.9559363126754761</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9824460744857788</v>
+        <v>0.9593179225921631</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9797714352607727</v>
+        <v>0.9542814493179321</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9781612157821655</v>
+        <v>0.9513168334960938</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8262832164764404</v>
+        <v>0.8162096738815308</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9818702936172485</v>
+        <v>0.9581794142723083</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9816411137580872</v>
+        <v>0.9577434659004211</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9825626611709595</v>
+        <v>0.9595017433166504</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9750291705131531</v>
+        <v>0.9457784295082092</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.981859028339386</v>
+        <v>0.9581746459007263</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9781991243362427</v>
+        <v>0.9513630867004395</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9782057404518127</v>
+        <v>0.9513772130012512</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.980678915977478</v>
+        <v>0.9559634327888489</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6844580173492432</v>
+        <v>0.5786527991294861</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9806700944900513</v>
+        <v>0.9559363126754761</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9248404502868652</v>
+        <v>0.8786965012550354</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.982164740562439</v>
+        <v>0.9587277770042419</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9248404502868652</v>
+        <v>0.8786965012550354</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9754253029823303</v>
+        <v>0.9463532567024231</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7875847816467285</v>
+        <v>0.4909408390522003</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9808431267738342</v>
+        <v>0.9562492966651917</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9261184930801392</v>
+        <v>0.8805744051933289</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7889297604560852</v>
+        <v>0.4925434589385986</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9806700944900513</v>
+        <v>0.9559363126754761</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7372593879699707</v>
+        <v>0.6151086688041687</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9836117625236511</v>
+        <v>0.9614781141281128</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7505753040313721</v>
+        <v>0.6281751394271851</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9833014011383057</v>
+        <v>0.9609020948410034</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.7507836818695068</v>
+        <v>0.6285756826400757</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9821548461914062</v>
+        <v>0.9587071537971497</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.7508251667022705</v>
+        <v>0.6286600232124329</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9824569225311279</v>
+        <v>0.9592710137367249</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9273983240127563</v>
+        <v>0.8825455904006958</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9809306263923645</v>
+        <v>0.9564024806022644</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.976435124874115</v>
+        <v>0.9458972215652466</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9781953096389771</v>
+        <v>0.9513931274414062</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9247223734855652</v>
+        <v>0.8786215782165527</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9838131666183472</v>
+        <v>0.9618823528289795</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.975514829158783</v>
+        <v>0.9466061592102051</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8278411030769348</v>
+        <v>0.8188766837120056</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.927850604057312</v>
+        <v>0.8829478621482849</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9806700944900513</v>
+        <v>0.9559363126754761</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8278411030769348</v>
+        <v>0.8188766837120056</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9270279407501221</v>
+        <v>0.8817287087440491</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9806700944900513</v>
+        <v>0.9559363126754761</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9781761765480042</v>
+        <v>0.9513333439826965</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9781827926635742</v>
+        <v>0.9513376355171204</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9781761765480042</v>
+        <v>0.9513333439826965</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9781761765480042</v>
+        <v>0.9513333439826965</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9781827926635742</v>
+        <v>0.9513376355171204</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9808529019355774</v>
+        <v>0.9562700986862183</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9785136580467224</v>
+        <v>0.9519377946853638</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9818549156188965</v>
+        <v>0.9581706523895264</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9831121563911438</v>
+        <v>0.9605591297149658</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9825518131256104</v>
+        <v>0.9594972133636475</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.795462965965271</v>
+        <v>0.4980953931808472</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9833852052688599</v>
+        <v>0.9610505700111389</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9836034774780273</v>
+        <v>0.961511492729187</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9828007221221924</v>
+        <v>0.9599429368972778</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9824280142784119</v>
+        <v>0.9592353105545044</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9808998107910156</v>
+        <v>0.9563679099082947</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9816431403160095</v>
+        <v>0.9577926993370056</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9816591143608093</v>
+        <v>0.957800567150116</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2999821305274963</v>
+        <v>0.1931128650903702</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9825944304466248</v>
+        <v>0.9595798850059509</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9818826913833618</v>
+        <v>0.958240270614624</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7873160243034363</v>
+        <v>0.4921503365039825</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8364438414573669</v>
+        <v>0.8287007808685303</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9833469390869141</v>
+        <v>0.9609779119491577</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9824404716491699</v>
+        <v>0.9592342376708984</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9827644228935242</v>
+        <v>0.9598527550697327</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9829772710800171</v>
+        <v>0.9602860808372498</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9258589744567871</v>
+        <v>0.8803353309631348</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9829874038696289</v>
+        <v>0.9603208303451538</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9830033779144287</v>
+        <v>0.9603452682495117</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9818705320358276</v>
+        <v>0.9582095146179199</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8280128240585327</v>
+        <v>0.8191480040550232</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.983086109161377</v>
+        <v>0.9604926705360413</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9781656861305237</v>
+        <v>0.9513256549835205</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.3123930990695953</v>
+        <v>0.1992153227329254</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9785002470016479</v>
+        <v>0.9518787860870361</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.3211926221847534</v>
+        <v>0.3031399548053741</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9818212389945984</v>
+        <v>0.9580950736999512</v>
       </c>
     </row>
   </sheetData>
